--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt4-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.02882084745106</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H2">
-        <v>1.02882084745106</v>
+        <v>3.671603</v>
       </c>
       <c r="I2">
-        <v>0.2223346210961179</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J2">
-        <v>0.2223346210961179</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09406177140980609</v>
+        <v>0.139245</v>
       </c>
       <c r="N2">
-        <v>0.09406177140980609</v>
+        <v>0.417735</v>
       </c>
       <c r="O2">
-        <v>0.008856199151427826</v>
+        <v>0.01212793695325064</v>
       </c>
       <c r="P2">
-        <v>0.008856199151427826</v>
+        <v>0.01283499108585158</v>
       </c>
       <c r="Q2">
-        <v>0.0967727113745846</v>
+        <v>0.170417453245</v>
       </c>
       <c r="R2">
-        <v>0.0967727113745846</v>
+        <v>1.533757079205</v>
       </c>
       <c r="S2">
-        <v>0.001969039682684467</v>
+        <v>0.002865689448118441</v>
       </c>
       <c r="T2">
-        <v>0.001969039682684467</v>
+        <v>0.003198795323342496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.02882084745106</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H3">
-        <v>1.02882084745106</v>
+        <v>3.671603</v>
       </c>
       <c r="I3">
-        <v>0.2223346210961179</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J3">
-        <v>0.2223346210961179</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.733624671439991</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N3">
-        <v>8.733624671439991</v>
+        <v>28.142075</v>
       </c>
       <c r="O3">
-        <v>0.8222970739846438</v>
+        <v>0.8170378621222814</v>
       </c>
       <c r="P3">
-        <v>0.8222970739846438</v>
+        <v>0.8646708601442703</v>
       </c>
       <c r="Q3">
-        <v>8.985335135790377</v>
+        <v>11.48072522180278</v>
       </c>
       <c r="R3">
-        <v>8.985335135790377</v>
+        <v>103.326526996225</v>
       </c>
       <c r="S3">
-        <v>0.1828251083728222</v>
+        <v>0.1930564768948204</v>
       </c>
       <c r="T3">
-        <v>0.1828251083728222</v>
+        <v>0.2154972360447504</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.02882084745106</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H4">
-        <v>1.02882084745106</v>
+        <v>3.671603</v>
       </c>
       <c r="I4">
-        <v>0.2223346210961179</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J4">
-        <v>0.2223346210961179</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.79332261549338</v>
+        <v>0.006356333333333333</v>
       </c>
       <c r="N4">
-        <v>1.79332261549338</v>
+        <v>0.019069</v>
       </c>
       <c r="O4">
-        <v>0.1688467268639284</v>
+        <v>0.0005536228225107701</v>
       </c>
       <c r="P4">
-        <v>0.1688467268639284</v>
+        <v>0.0005858988234553099</v>
       </c>
       <c r="Q4">
-        <v>1.845007693025051</v>
+        <v>0.007779310845222222</v>
       </c>
       <c r="R4">
-        <v>1.845007693025051</v>
+        <v>0.07001379760699999</v>
       </c>
       <c r="S4">
-        <v>0.03754047304061124</v>
+        <v>0.0001308145884021462</v>
       </c>
       <c r="T4">
-        <v>0.03754047304061124</v>
+        <v>0.0001460203909675226</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.86722253179904</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H5">
-        <v>0.86722253179904</v>
+        <v>3.671603</v>
       </c>
       <c r="I5">
-        <v>0.1874122141782587</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J5">
-        <v>0.1874122141782587</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09406177140980609</v>
+        <v>0.05759666666666666</v>
       </c>
       <c r="N5">
-        <v>0.09406177140980609</v>
+        <v>0.17279</v>
       </c>
       <c r="O5">
-        <v>0.008856199151427826</v>
+        <v>0.005016544522609259</v>
       </c>
       <c r="P5">
-        <v>0.008856199151427826</v>
+        <v>0.005309007168957103</v>
       </c>
       <c r="Q5">
-        <v>0.08157248754751459</v>
+        <v>0.07049069804111112</v>
       </c>
       <c r="R5">
-        <v>0.08157248754751459</v>
+        <v>0.63441628237</v>
       </c>
       <c r="S5">
-        <v>0.001659759892172704</v>
+        <v>0.00118535071215097</v>
       </c>
       <c r="T5">
-        <v>0.001659759892172704</v>
+        <v>0.001323135106994506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.86722253179904</v>
+        <v>1.223867666666667</v>
       </c>
       <c r="H6">
-        <v>0.86722253179904</v>
+        <v>3.671603</v>
       </c>
       <c r="I6">
-        <v>0.1874122141782587</v>
+        <v>0.2362882870487179</v>
       </c>
       <c r="J6">
-        <v>0.1874122141782587</v>
+        <v>0.2492245847267186</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.733624671439991</v>
+        <v>1.897453</v>
       </c>
       <c r="N6">
-        <v>8.733624671439991</v>
+        <v>3.794906</v>
       </c>
       <c r="O6">
-        <v>0.8222970739846438</v>
+        <v>0.1652640335793479</v>
       </c>
       <c r="P6">
-        <v>0.8222970739846438</v>
+        <v>0.1165992427774658</v>
       </c>
       <c r="Q6">
-        <v>7.573996099348747</v>
+        <v>2.322231375719667</v>
       </c>
       <c r="R6">
-        <v>7.573996099348747</v>
+        <v>13.933388254318</v>
       </c>
       <c r="S6">
-        <v>0.1541085153477655</v>
+        <v>0.03904995540522591</v>
       </c>
       <c r="T6">
-        <v>0.1541085153477655</v>
+        <v>0.02905939786066377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.86722253179904</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H7">
-        <v>0.86722253179904</v>
+        <v>2.775692</v>
       </c>
       <c r="I7">
-        <v>0.1874122141782587</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J7">
-        <v>0.1874122141782587</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.79332261549338</v>
+        <v>0.139245</v>
       </c>
       <c r="N7">
-        <v>1.79332261549338</v>
+        <v>0.417735</v>
       </c>
       <c r="O7">
-        <v>0.1688467268639284</v>
+        <v>0.01212793695325064</v>
       </c>
       <c r="P7">
-        <v>0.1688467268639284</v>
+        <v>0.01283499108585158</v>
       </c>
       <c r="Q7">
-        <v>1.555209778940645</v>
+        <v>0.12883374418</v>
       </c>
       <c r="R7">
-        <v>1.555209778940645</v>
+        <v>1.15950369762</v>
       </c>
       <c r="S7">
-        <v>0.03164393893832049</v>
+        <v>0.002166430105767636</v>
       </c>
       <c r="T7">
-        <v>0.03164393893832049</v>
+        <v>0.002418254530416055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7290280888959479</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H8">
-        <v>0.7290280888959479</v>
+        <v>2.775692</v>
       </c>
       <c r="I8">
-        <v>0.1575475305683072</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J8">
-        <v>0.1575475305683072</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09406177140980609</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N8">
-        <v>0.09406177140980609</v>
+        <v>28.142075</v>
       </c>
       <c r="O8">
-        <v>0.008856199151427826</v>
+        <v>0.8170378621222814</v>
       </c>
       <c r="P8">
-        <v>0.008856199151427826</v>
+        <v>0.8646708601442703</v>
       </c>
       <c r="Q8">
-        <v>0.06857367344905846</v>
+        <v>8.679303604544446</v>
       </c>
       <c r="R8">
-        <v>0.06857367344905846</v>
+        <v>78.11373244089999</v>
       </c>
       <c r="S8">
-        <v>0.001395272306528591</v>
+        <v>0.1459486002340497</v>
       </c>
       <c r="T8">
-        <v>0.001395272306528591</v>
+        <v>0.162913570479032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7290280888959479</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H9">
-        <v>0.7290280888959479</v>
+        <v>2.775692</v>
       </c>
       <c r="I9">
-        <v>0.1575475305683072</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J9">
-        <v>0.1575475305683072</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.733624671439991</v>
+        <v>0.006356333333333333</v>
       </c>
       <c r="N9">
-        <v>8.733624671439991</v>
+        <v>0.019069</v>
       </c>
       <c r="O9">
-        <v>0.8222970739846438</v>
+        <v>0.0005536228225107701</v>
       </c>
       <c r="P9">
-        <v>0.8222970739846438</v>
+        <v>0.0005858988234553099</v>
       </c>
       <c r="Q9">
-        <v>6.367057703354398</v>
+        <v>0.005881074527555555</v>
       </c>
       <c r="R9">
-        <v>6.367057703354398</v>
+        <v>0.05292967074799999</v>
       </c>
       <c r="S9">
-        <v>0.1295508733998252</v>
+        <v>9.889440838541914E-05</v>
       </c>
       <c r="T9">
-        <v>0.1295508733998252</v>
+        <v>0.0001103898300130555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7290280888959479</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H10">
-        <v>0.7290280888959479</v>
+        <v>2.775692</v>
       </c>
       <c r="I10">
-        <v>0.1575475305683072</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J10">
-        <v>0.1575475305683072</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.79332261549338</v>
+        <v>0.05759666666666666</v>
       </c>
       <c r="N10">
-        <v>1.79332261549338</v>
+        <v>0.17279</v>
       </c>
       <c r="O10">
-        <v>0.1688467268639284</v>
+        <v>0.005016544522609259</v>
       </c>
       <c r="P10">
-        <v>0.1688467268639284</v>
+        <v>0.005309007168957103</v>
       </c>
       <c r="Q10">
-        <v>1.307382559147022</v>
+        <v>0.05329020229777778</v>
       </c>
       <c r="R10">
-        <v>1.307382559147022</v>
+        <v>0.47961182068</v>
       </c>
       <c r="S10">
-        <v>0.02660138486195338</v>
+        <v>0.0008961122672880891</v>
       </c>
       <c r="T10">
-        <v>0.02660138486195338</v>
+        <v>0.001000275773661748</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.24569569455324</v>
+        <v>0.9252306666666666</v>
       </c>
       <c r="H11">
-        <v>1.24569569455324</v>
+        <v>2.775692</v>
       </c>
       <c r="I11">
-        <v>0.2692026322520013</v>
+        <v>0.178631379278977</v>
       </c>
       <c r="J11">
-        <v>0.2692026322520013</v>
+        <v>0.1884110798551137</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09406177140980609</v>
+        <v>1.897453</v>
       </c>
       <c r="N11">
-        <v>0.09406177140980609</v>
+        <v>3.794906</v>
       </c>
       <c r="O11">
-        <v>0.008856199151427826</v>
+        <v>0.1652640335793479</v>
       </c>
       <c r="P11">
-        <v>0.008856199151427826</v>
+        <v>0.1165992427774658</v>
       </c>
       <c r="Q11">
-        <v>0.1171723436672465</v>
+        <v>1.755581704158667</v>
       </c>
       <c r="R11">
-        <v>0.1171723436672465</v>
+        <v>10.533490224952</v>
       </c>
       <c r="S11">
-        <v>0.002384112123312311</v>
+        <v>0.02952134226348609</v>
       </c>
       <c r="T11">
-        <v>0.002384112123312311</v>
+        <v>0.02196858924199091</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.24569569455324</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H12">
-        <v>1.24569569455324</v>
+        <v>2.460996</v>
       </c>
       <c r="I12">
-        <v>0.2692026322520013</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J12">
-        <v>0.2692026322520013</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.733624671439991</v>
+        <v>0.139245</v>
       </c>
       <c r="N12">
-        <v>8.733624671439991</v>
+        <v>0.417735</v>
       </c>
       <c r="O12">
-        <v>0.8222970739846438</v>
+        <v>0.01212793695325064</v>
       </c>
       <c r="P12">
-        <v>0.8222970739846438</v>
+        <v>0.01283499108585158</v>
       </c>
       <c r="Q12">
-        <v>10.87943865105675</v>
+        <v>0.11422712934</v>
       </c>
       <c r="R12">
-        <v>10.87943865105675</v>
+        <v>1.02804416406</v>
       </c>
       <c r="S12">
-        <v>0.2213645368097848</v>
+        <v>0.001920809594354752</v>
       </c>
       <c r="T12">
-        <v>0.2213645368097848</v>
+        <v>0.00214408325071218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.24569569455324</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H13">
-        <v>1.24569569455324</v>
+        <v>2.460996</v>
       </c>
       <c r="I13">
-        <v>0.2692026322520013</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J13">
-        <v>0.2692026322520013</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.79332261549338</v>
+        <v>9.380691666666667</v>
       </c>
       <c r="N13">
-        <v>1.79332261549338</v>
+        <v>28.142075</v>
       </c>
       <c r="O13">
-        <v>0.1688467268639284</v>
+        <v>0.8170378621222814</v>
       </c>
       <c r="P13">
-        <v>0.1688467268639284</v>
+        <v>0.8646708601442703</v>
       </c>
       <c r="Q13">
-        <v>2.233934261065059</v>
+        <v>7.695281556300001</v>
       </c>
       <c r="R13">
-        <v>2.233934261065059</v>
+        <v>69.25753400670001</v>
       </c>
       <c r="S13">
-        <v>0.04545398331890423</v>
+        <v>0.1294015767533269</v>
       </c>
       <c r="T13">
-        <v>0.04545398331890423</v>
+        <v>0.1444431317648413</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.756586158969354</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H14">
-        <v>0.756586158969354</v>
+        <v>2.460996</v>
       </c>
       <c r="I14">
-        <v>0.1635030019053151</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J14">
-        <v>0.1635030019053151</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.09406177140980609</v>
+        <v>0.006356333333333333</v>
       </c>
       <c r="N14">
-        <v>0.09406177140980609</v>
+        <v>0.019069</v>
       </c>
       <c r="O14">
-        <v>0.008856199151427826</v>
+        <v>0.0005536228225107701</v>
       </c>
       <c r="P14">
-        <v>0.008856199151427826</v>
+        <v>0.0005858988234553099</v>
       </c>
       <c r="Q14">
-        <v>0.07116583433679859</v>
+        <v>0.005214303636</v>
       </c>
       <c r="R14">
-        <v>0.07116583433679859</v>
+        <v>0.046928732724</v>
       </c>
       <c r="S14">
-        <v>0.001448015146729754</v>
+        <v>8.768218644535596E-05</v>
       </c>
       <c r="T14">
-        <v>0.001448015146729754</v>
+        <v>9.78743066964237E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.756586158969354</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H15">
-        <v>0.756586158969354</v>
+        <v>2.460996</v>
       </c>
       <c r="I15">
-        <v>0.1635030019053151</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J15">
-        <v>0.1635030019053151</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>8.733624671439991</v>
+        <v>0.05759666666666666</v>
       </c>
       <c r="N15">
-        <v>8.733624671439991</v>
+        <v>0.17279</v>
       </c>
       <c r="O15">
-        <v>0.8222970739846438</v>
+        <v>0.005016544522609259</v>
       </c>
       <c r="P15">
-        <v>0.8222970739846438</v>
+        <v>0.005309007168957103</v>
       </c>
       <c r="Q15">
-        <v>6.607739544044769</v>
+        <v>0.04724838876</v>
       </c>
       <c r="R15">
-        <v>6.607739544044769</v>
+        <v>0.42523549884</v>
       </c>
       <c r="S15">
-        <v>0.1344480400544462</v>
+        <v>0.0007945149192874851</v>
       </c>
       <c r="T15">
-        <v>0.1344480400544462</v>
+        <v>0.000886868816092876</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.756586158969354</v>
+        <v>0.8203320000000001</v>
       </c>
       <c r="H16">
-        <v>0.756586158969354</v>
+        <v>2.460996</v>
       </c>
       <c r="I16">
-        <v>0.1635030019053151</v>
+        <v>0.1583789231226106</v>
       </c>
       <c r="J16">
-        <v>0.1635030019053151</v>
+        <v>0.1670498433828809</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.79332261549338</v>
+        <v>1.897453</v>
       </c>
       <c r="N16">
-        <v>1.79332261549338</v>
+        <v>3.794906</v>
       </c>
       <c r="O16">
-        <v>0.1688467268639284</v>
+        <v>0.1652640335793479</v>
       </c>
       <c r="P16">
-        <v>0.1688467268639284</v>
+        <v>0.1165992427774658</v>
       </c>
       <c r="Q16">
-        <v>1.356803069449012</v>
+        <v>1.556541414396</v>
       </c>
       <c r="R16">
-        <v>1.356803069449012</v>
+        <v>9.339248486376</v>
       </c>
       <c r="S16">
-        <v>0.0276069467041391</v>
+        <v>0.02617433966919608</v>
       </c>
       <c r="T16">
-        <v>0.0276069467041391</v>
+        <v>0.01947788524453817</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.40357</v>
+      </c>
+      <c r="H17">
+        <v>4.210710000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.2709828522198361</v>
+      </c>
+      <c r="J17">
+        <v>0.285818605975276</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.139245</v>
+      </c>
+      <c r="N17">
+        <v>0.417735</v>
+      </c>
+      <c r="O17">
+        <v>0.01212793695325064</v>
+      </c>
+      <c r="P17">
+        <v>0.01283499108585158</v>
+      </c>
+      <c r="Q17">
+        <v>0.19544010465</v>
+      </c>
+      <c r="R17">
+        <v>1.75896094185</v>
+      </c>
+      <c r="S17">
+        <v>0.003286462947134208</v>
+      </c>
+      <c r="T17">
+        <v>0.003668479259863194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.40357</v>
+      </c>
+      <c r="H18">
+        <v>4.210710000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.2709828522198361</v>
+      </c>
+      <c r="J18">
+        <v>0.285818605975276</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.380691666666667</v>
+      </c>
+      <c r="N18">
+        <v>28.142075</v>
+      </c>
+      <c r="O18">
+        <v>0.8170378621222814</v>
+      </c>
+      <c r="P18">
+        <v>0.8646708601442703</v>
+      </c>
+      <c r="Q18">
+        <v>13.16645740258334</v>
+      </c>
+      <c r="R18">
+        <v>118.49811662325</v>
+      </c>
+      <c r="S18">
+        <v>0.221403250249493</v>
+      </c>
+      <c r="T18">
+        <v>0.2471390198738782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.40357</v>
+      </c>
+      <c r="H19">
+        <v>4.210710000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.2709828522198361</v>
+      </c>
+      <c r="J19">
+        <v>0.285818605975276</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.006356333333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.019069</v>
+      </c>
+      <c r="O19">
+        <v>0.0005536228225107701</v>
+      </c>
+      <c r="P19">
+        <v>0.0005858988234553099</v>
+      </c>
+      <c r="Q19">
+        <v>0.008921558776666666</v>
+      </c>
+      <c r="R19">
+        <v>0.08029402899</v>
+      </c>
+      <c r="S19">
+        <v>0.0001500222914979646</v>
+      </c>
+      <c r="T19">
+        <v>0.000167460784962551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.40357</v>
+      </c>
+      <c r="H20">
+        <v>4.210710000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.2709828522198361</v>
+      </c>
+      <c r="J20">
+        <v>0.285818605975276</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.05759666666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.17279</v>
+      </c>
+      <c r="O20">
+        <v>0.005016544522609259</v>
+      </c>
+      <c r="P20">
+        <v>0.005309007168957103</v>
+      </c>
+      <c r="Q20">
+        <v>0.08084095343333335</v>
+      </c>
+      <c r="R20">
+        <v>0.7275685809000001</v>
+      </c>
+      <c r="S20">
+        <v>0.001359397543024453</v>
+      </c>
+      <c r="T20">
+        <v>0.001517413028144066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.40357</v>
+      </c>
+      <c r="H21">
+        <v>4.210710000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2709828522198361</v>
+      </c>
+      <c r="J21">
+        <v>0.285818605975276</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.897453</v>
+      </c>
+      <c r="N21">
+        <v>3.794906</v>
+      </c>
+      <c r="O21">
+        <v>0.1652640335793479</v>
+      </c>
+      <c r="P21">
+        <v>0.1165992427774658</v>
+      </c>
+      <c r="Q21">
+        <v>2.66320810721</v>
+      </c>
+      <c r="R21">
+        <v>15.97924864326</v>
+      </c>
+      <c r="S21">
+        <v>0.04478371918868646</v>
+      </c>
+      <c r="T21">
+        <v>0.03332623302842806</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.8065525</v>
+      </c>
+      <c r="H22">
+        <v>1.613105</v>
+      </c>
+      <c r="I22">
+        <v>0.1557185583298584</v>
+      </c>
+      <c r="J22">
+        <v>0.1094958860600107</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.139245</v>
+      </c>
+      <c r="N22">
+        <v>0.417735</v>
+      </c>
+      <c r="O22">
+        <v>0.01212793695325064</v>
+      </c>
+      <c r="P22">
+        <v>0.01283499108585158</v>
+      </c>
+      <c r="Q22">
+        <v>0.1123084028625</v>
+      </c>
+      <c r="R22">
+        <v>0.6738504171749999</v>
+      </c>
+      <c r="S22">
+        <v>0.001888544857875605</v>
+      </c>
+      <c r="T22">
+        <v>0.001405378721517658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.8065525</v>
+      </c>
+      <c r="H23">
+        <v>1.613105</v>
+      </c>
+      <c r="I23">
+        <v>0.1557185583298584</v>
+      </c>
+      <c r="J23">
+        <v>0.1094958860600107</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.380691666666667</v>
+      </c>
+      <c r="N23">
+        <v>28.142075</v>
+      </c>
+      <c r="O23">
+        <v>0.8170378621222814</v>
+      </c>
+      <c r="P23">
+        <v>0.8646708601442703</v>
+      </c>
+      <c r="Q23">
+        <v>7.566020315479167</v>
+      </c>
+      <c r="R23">
+        <v>45.396121892875</v>
+      </c>
+      <c r="S23">
+        <v>0.1272279579905913</v>
+      </c>
+      <c r="T23">
+        <v>0.09467790198176847</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.8065525</v>
+      </c>
+      <c r="H24">
+        <v>1.613105</v>
+      </c>
+      <c r="I24">
+        <v>0.1557185583298584</v>
+      </c>
+      <c r="J24">
+        <v>0.1094958860600107</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.006356333333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.019069</v>
+      </c>
+      <c r="O24">
+        <v>0.0005536228225107701</v>
+      </c>
+      <c r="P24">
+        <v>0.0005858988234553099</v>
+      </c>
+      <c r="Q24">
+        <v>0.005126716540833333</v>
+      </c>
+      <c r="R24">
+        <v>0.030760299245</v>
+      </c>
+      <c r="S24">
+        <v>8.620934777988418E-05</v>
+      </c>
+      <c r="T24">
+        <v>6.415351081575693E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.8065525</v>
+      </c>
+      <c r="H25">
+        <v>1.613105</v>
+      </c>
+      <c r="I25">
+        <v>0.1557185583298584</v>
+      </c>
+      <c r="J25">
+        <v>0.1094958860600107</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.05759666666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.17279</v>
+      </c>
+      <c r="O25">
+        <v>0.005016544522609259</v>
+      </c>
+      <c r="P25">
+        <v>0.005309007168957103</v>
+      </c>
+      <c r="Q25">
+        <v>0.04645473549166666</v>
+      </c>
+      <c r="R25">
+        <v>0.27872841295</v>
+      </c>
+      <c r="S25">
+        <v>0.0007811690808582615</v>
+      </c>
+      <c r="T25">
+        <v>0.0005813144440639068</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.8065525</v>
+      </c>
+      <c r="H26">
+        <v>1.613105</v>
+      </c>
+      <c r="I26">
+        <v>0.1557185583298584</v>
+      </c>
+      <c r="J26">
+        <v>0.1094958860600107</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.897453</v>
+      </c>
+      <c r="N26">
+        <v>3.794906</v>
+      </c>
+      <c r="O26">
+        <v>0.1652640335793479</v>
+      </c>
+      <c r="P26">
+        <v>0.1165992427774658</v>
+      </c>
+      <c r="Q26">
+        <v>1.5303954607825</v>
+      </c>
+      <c r="R26">
+        <v>6.12158184313</v>
+      </c>
+      <c r="S26">
+        <v>0.02573467705275336</v>
+      </c>
+      <c r="T26">
+        <v>0.01276713740184492</v>
       </c>
     </row>
   </sheetData>
